--- a/results/Experiment Sheet.xlsx
+++ b/results/Experiment Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\다운로드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C2D7F3-C99C-4B49-91D3-E7ACE123FD06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D1981B-F4DE-4C59-92D4-91B4886FA94F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(Point) Range_TDrive" sheetId="5" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>Apache sedona</t>
   </si>
   <si>
@@ -174,6 +171,10 @@
   </si>
   <si>
     <t>k-Similarity Query Evaluation</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>k / sec</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -908,24 +909,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -933,9 +916,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -950,35 +930,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -986,26 +945,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1028,13 +969,70 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1255,14 +1253,14 @@
   <dimension ref="A1:T778"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="73" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="67" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
@@ -1297,21 +1295,21 @@
       <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" customHeight="1">
       <c r="C5" s="9"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14" t="s">
         <v>8</v>
@@ -1454,7 +1452,7 @@
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
       <c r="A9" s="14"/>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="18">
@@ -1499,21 +1497,21 @@
       <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="67" t="s">
+      <c r="C11" s="68"/>
+      <c r="D11" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="92"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" customHeight="1">
       <c r="C12" s="9"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="13"/>
       <c r="I12" s="14" t="s">
         <v>11</v>
@@ -1651,7 +1649,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="18">
@@ -1696,21 +1694,21 @@
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="67" t="s">
+      <c r="C18" s="68"/>
+      <c r="D18" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:20" ht="16.5" customHeight="1">
       <c r="C19" s="9"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="10"/>
       <c r="I19" s="14" t="s">
         <v>9</v>
@@ -1853,7 +1851,7 @@
     </row>
     <row r="23" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
       <c r="A23" s="14"/>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="18">
@@ -1906,21 +1904,21 @@
       <c r="B25" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="67" t="s">
+      <c r="C25" s="68"/>
+      <c r="D25" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="92"/>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:20" ht="16.5" customHeight="1">
       <c r="C26" s="9"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
       <c r="H26" s="10"/>
       <c r="I26" s="14" t="s">
         <v>10</v>
@@ -2063,7 +2061,7 @@
     </row>
     <row r="30" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
       <c r="A30" s="14"/>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="18">
@@ -3307,14 +3305,14 @@
     <row r="778" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="D12:G12"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -3326,305 +3324,306 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CA8B68-5D5B-4999-86BA-234BE29DB64F}">
   <dimension ref="B1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+    </row>
+    <row r="4" spans="2:7" ht="33" customHeight="1" thickBot="1">
+      <c r="B4" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B6" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B3" s="88"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-    </row>
-    <row r="4" spans="2:7" ht="33" customHeight="1" thickBot="1">
-      <c r="B4" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95"/>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B6" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="80">
+      <c r="C6" s="73">
         <v>50</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="73">
         <v>100</v>
       </c>
-      <c r="E6" s="80">
+      <c r="E6" s="73">
         <v>150</v>
       </c>
-      <c r="F6" s="80">
+      <c r="F6" s="73">
         <v>200</v>
       </c>
-      <c r="G6" s="80">
+      <c r="G6" s="73">
         <v>250</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B7" s="109"/>
-      <c r="C7" s="80">
+      <c r="B7" s="107"/>
+      <c r="C7" s="73">
         <v>1.3620000000000001</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="73">
         <v>1.4670000000000001</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="73">
         <v>1.44</v>
       </c>
-      <c r="F7" s="80">
+      <c r="F7" s="73">
         <v>1.4630000000000001</v>
       </c>
-      <c r="G7" s="80">
+      <c r="G7" s="73">
         <v>1.4650000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
     </row>
     <row r="9" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="2:7" ht="33" customHeight="1" thickBot="1">
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B12" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="80">
+      <c r="B12" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="73">
         <v>50</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="73">
         <v>100</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="73">
         <v>150</v>
       </c>
-      <c r="F12" s="80">
+      <c r="F12" s="73">
         <v>200</v>
       </c>
-      <c r="G12" s="80">
+      <c r="G12" s="73">
         <v>250</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B13" s="109"/>
-      <c r="C13" s="80">
+      <c r="B13" s="107"/>
+      <c r="C13" s="73">
         <v>0.53</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="73">
         <v>0.47799999999999998</v>
       </c>
-      <c r="E13" s="80">
+      <c r="E13" s="73">
         <v>0.47899999999999998</v>
       </c>
-      <c r="F13" s="80">
+      <c r="F13" s="73">
         <v>0.69</v>
       </c>
-      <c r="G13" s="80">
+      <c r="G13" s="73">
         <v>0.47599999999999998</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
     </row>
     <row r="16" spans="2:7" ht="33" customHeight="1" thickBot="1">
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="99"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B18" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="80">
+      <c r="B18" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="73">
         <v>50</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="73">
         <v>100</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="73">
         <v>150</v>
       </c>
-      <c r="F18" s="80">
+      <c r="F18" s="73">
         <v>200</v>
       </c>
-      <c r="G18" s="80">
+      <c r="G18" s="73">
         <v>250</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B19" s="109"/>
-      <c r="C19" s="80">
+      <c r="B19" s="107"/>
+      <c r="C19" s="73">
         <v>0.32700000000000001</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="73">
         <v>0.33900000000000002</v>
       </c>
-      <c r="E19" s="80">
+      <c r="E19" s="73">
         <v>0.32200000000000001</v>
       </c>
-      <c r="F19" s="80">
+      <c r="F19" s="73">
         <v>0.34699999999999998</v>
       </c>
-      <c r="G19" s="80">
+      <c r="G19" s="73">
         <v>0.34100000000000003</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
     </row>
     <row r="22" spans="2:7" ht="33" customHeight="1" thickBot="1">
-      <c r="B22" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="95"/>
+      <c r="B22" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="99"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B24" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="80">
+      <c r="B24" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="73">
         <v>50</v>
       </c>
-      <c r="D24" s="80">
+      <c r="D24" s="73">
         <v>100</v>
       </c>
-      <c r="E24" s="80">
+      <c r="E24" s="73">
         <v>150</v>
       </c>
-      <c r="F24" s="80">
+      <c r="F24" s="73">
         <v>200</v>
       </c>
-      <c r="G24" s="80">
+      <c r="G24" s="73">
         <v>250</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B25" s="109"/>
-      <c r="C25" s="80">
+      <c r="B25" s="107"/>
+      <c r="C25" s="73">
         <v>0.54600000000000004</v>
       </c>
-      <c r="D25" s="80">
+      <c r="D25" s="73">
         <v>0.58499999999999996</v>
       </c>
-      <c r="E25" s="80">
+      <c r="E25" s="73">
         <v>0.54100000000000004</v>
       </c>
-      <c r="F25" s="80">
+      <c r="F25" s="73">
         <v>0.68200000000000005</v>
       </c>
-      <c r="G25" s="80">
+      <c r="G25" s="73">
         <v>0.53900000000000003</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:D3"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B10:G10"/>
@@ -3633,10 +3632,10 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B2:D3"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3652,7 +3651,7 @@
   <cols>
     <col min="1" max="1" width="12.42578125" style="47" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="73" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="67" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" style="47" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" style="47" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" style="47" customWidth="1"/>
@@ -3688,21 +3687,21 @@
       <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" customHeight="1">
       <c r="C5" s="9"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="63"/>
       <c r="I5" s="14" t="s">
         <v>8</v>
@@ -3845,7 +3844,7 @@
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
       <c r="A9" s="14"/>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="64">
@@ -3890,21 +3889,21 @@
       <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="67" t="s">
+      <c r="C11" s="68"/>
+      <c r="D11" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="92"/>
       <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" customHeight="1">
       <c r="C12" s="9"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="63"/>
       <c r="I12" s="14" t="s">
         <v>11</v>
@@ -4040,7 +4039,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="64">
@@ -4085,21 +4084,21 @@
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="67" t="s">
+      <c r="C18" s="68"/>
+      <c r="D18" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
       <c r="H18" s="63"/>
     </row>
     <row r="19" spans="1:20" ht="16.5" customHeight="1">
       <c r="C19" s="9"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="15"/>
       <c r="I19" s="14" t="s">
         <v>9</v>
@@ -4242,7 +4241,7 @@
     </row>
     <row r="23" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
       <c r="A23" s="14"/>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="64">
@@ -4295,21 +4294,21 @@
       <c r="B25" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="67" t="s">
+      <c r="C25" s="68"/>
+      <c r="D25" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="92"/>
       <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:20" ht="16.5" customHeight="1">
       <c r="C26" s="9"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
       <c r="H26" s="15"/>
       <c r="I26" s="14" t="s">
         <v>10</v>
@@ -4452,7 +4451,7 @@
     </row>
     <row r="30" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
       <c r="A30" s="14"/>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="64">
@@ -5724,7 +5723,7 @@
   <cols>
     <col min="1" max="1" width="12.42578125" style="47" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="73" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="67" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" style="47" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" style="47" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" style="47" customWidth="1"/>
@@ -5760,21 +5759,21 @@
       <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" customHeight="1">
       <c r="C5" s="9"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="63"/>
       <c r="I5" s="14" t="s">
         <v>8</v>
@@ -5917,7 +5916,7 @@
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
       <c r="A9" s="14"/>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="64">
@@ -5962,21 +5961,21 @@
       <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="67" t="s">
+      <c r="C11" s="68"/>
+      <c r="D11" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="92"/>
       <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" customHeight="1">
       <c r="C12" s="9"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="63"/>
       <c r="I12" s="14" t="s">
         <v>11</v>
@@ -6112,7 +6111,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="64">
@@ -6157,21 +6156,21 @@
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="67" t="s">
+      <c r="C18" s="68"/>
+      <c r="D18" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
       <c r="H18" s="63"/>
     </row>
     <row r="19" spans="1:20" ht="16.5" customHeight="1">
       <c r="C19" s="9"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="15"/>
       <c r="I19" s="14" t="s">
         <v>9</v>
@@ -6314,7 +6313,7 @@
     </row>
     <row r="23" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
       <c r="A23" s="14"/>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="64">
@@ -6367,21 +6366,21 @@
       <c r="B25" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="67" t="s">
+      <c r="C25" s="68"/>
+      <c r="D25" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="92"/>
       <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:20" ht="16.5" customHeight="1">
       <c r="C26" s="9"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
       <c r="H26" s="15"/>
       <c r="I26" s="14" t="s">
         <v>10</v>
@@ -6524,7 +6523,7 @@
     </row>
     <row r="30" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
       <c r="A30" s="14"/>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="64">
@@ -7789,7 +7788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2B8148-AD19-4918-93FD-008E25FBEDB5}">
   <dimension ref="A1:T780"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -7797,7 +7796,7 @@
   <cols>
     <col min="1" max="1" width="12.42578125" style="47" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="73" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="67" customWidth="1"/>
     <col min="4" max="4" width="31.42578125" style="47" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" style="47" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" style="47" customWidth="1"/>
@@ -7833,21 +7832,21 @@
       <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" customHeight="1">
       <c r="C5" s="9"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="63"/>
       <c r="I5" s="14" t="s">
         <v>8</v>
@@ -7990,7 +7989,7 @@
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
       <c r="A9" s="14"/>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="64">
@@ -8035,21 +8034,21 @@
       <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="67" t="s">
+      <c r="C11" s="68"/>
+      <c r="D11" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="92"/>
       <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:20" ht="16.5" customHeight="1">
       <c r="C12" s="9"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="63"/>
       <c r="I12" s="14" t="s">
         <v>11</v>
@@ -8185,7 +8184,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="64">
@@ -8230,21 +8229,21 @@
       <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="67" t="s">
+      <c r="C18" s="68"/>
+      <c r="D18" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
       <c r="H18" s="63"/>
     </row>
     <row r="19" spans="1:20" ht="16.5" customHeight="1">
       <c r="C19" s="9"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="15"/>
       <c r="I19" s="14" t="s">
         <v>9</v>
@@ -8387,7 +8386,7 @@
     </row>
     <row r="23" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
       <c r="A23" s="14"/>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="64">
@@ -8440,21 +8439,21 @@
       <c r="B25" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="67" t="s">
+      <c r="C25" s="68"/>
+      <c r="D25" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="92"/>
       <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:20" ht="16.5" customHeight="1">
       <c r="C26" s="9"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
       <c r="H26" s="15"/>
       <c r="I26" s="14" t="s">
         <v>10</v>
@@ -8597,7 +8596,7 @@
     </row>
     <row r="30" spans="1:20" ht="16.5" customHeight="1" thickBot="1">
       <c r="A30" s="14"/>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="64">
@@ -9885,20 +9884,20 @@
       <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="76"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="93"/>
     </row>
     <row r="5" spans="2:13" ht="16.5">
       <c r="C5" s="44"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
       <c r="I5" s="14" t="s">
         <v>8</v>
       </c>
@@ -9991,7 +9990,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="17.25" thickBot="1">
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="18">
@@ -10025,19 +10024,19 @@
         <v>11</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="92"/>
     </row>
     <row r="12" spans="2:13" ht="16.5">
       <c r="C12" s="44"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
       <c r="I12" s="14" t="s">
         <v>11</v>
       </c>
@@ -10128,7 +10127,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="17.25" thickBot="1">
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="18">
@@ -10162,19 +10161,19 @@
         <v>9</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
     </row>
     <row r="19" spans="2:13" ht="16.5">
       <c r="C19" s="44"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
       <c r="I19" s="14" t="s">
         <v>9</v>
       </c>
@@ -10267,7 +10266,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="17.25" thickBot="1">
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="18">
@@ -10305,19 +10304,19 @@
         <v>10</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="92"/>
     </row>
     <row r="26" spans="2:13" ht="16.5">
       <c r="C26" s="44"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
       <c r="I26" s="14" t="s">
         <v>10</v>
       </c>
@@ -10410,7 +10409,7 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" thickBot="1">
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="18">
@@ -10497,20 +10496,20 @@
       <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="76"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="93"/>
     </row>
     <row r="5" spans="2:13" ht="16.5">
       <c r="C5" s="7"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
       <c r="I5" s="14" t="s">
         <v>8</v>
       </c>
@@ -10603,7 +10602,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="17.25" thickBot="1">
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="18">
@@ -10637,19 +10636,19 @@
         <v>11</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="92"/>
     </row>
     <row r="12" spans="2:13" ht="16.5">
       <c r="C12" s="44"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
       <c r="I12" s="14" t="s">
         <v>11</v>
       </c>
@@ -10740,7 +10739,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="17.25" thickBot="1">
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="18">
@@ -10774,19 +10773,19 @@
         <v>9</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
     </row>
     <row r="19" spans="2:13" ht="16.5">
       <c r="C19" s="44"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
       <c r="I19" s="14" t="s">
         <v>9</v>
       </c>
@@ -10879,7 +10878,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="17.25" thickBot="1">
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="18">
@@ -10917,19 +10916,19 @@
         <v>10</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="92"/>
     </row>
     <row r="26" spans="2:13" ht="16.5">
       <c r="C26" s="44"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
       <c r="I26" s="14" t="s">
         <v>10</v>
       </c>
@@ -11022,7 +11021,7 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" thickBot="1">
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="18">
@@ -11306,20 +11305,20 @@
       <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="76"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="93"/>
     </row>
     <row r="5" spans="2:13" ht="16.5">
       <c r="C5" s="44"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
       <c r="I5" s="14" t="s">
         <v>8</v>
       </c>
@@ -11412,7 +11411,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="17.25" thickBot="1">
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="18">
@@ -11446,19 +11445,19 @@
         <v>11</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="92"/>
     </row>
     <row r="12" spans="2:13" ht="16.5">
       <c r="C12" s="44"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
       <c r="I12" s="14" t="s">
         <v>11</v>
       </c>
@@ -11549,7 +11548,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="17.25" thickBot="1">
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="18">
@@ -11583,19 +11582,19 @@
         <v>9</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
     </row>
     <row r="19" spans="2:13" ht="16.5">
       <c r="C19" s="44"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
       <c r="I19" s="14" t="s">
         <v>9</v>
       </c>
@@ -11688,7 +11687,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="17.25" thickBot="1">
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="18">
@@ -11726,19 +11725,19 @@
         <v>10</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="92"/>
     </row>
     <row r="26" spans="2:13" ht="16.5">
       <c r="C26" s="44"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
       <c r="I26" s="14" t="s">
         <v>10</v>
       </c>
@@ -11831,7 +11830,7 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" thickBot="1">
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="18">
@@ -12076,7 +12075,7 @@
   <dimension ref="B3:M61"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -12095,20 +12094,20 @@
       <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="76"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="93"/>
     </row>
     <row r="5" spans="2:13" ht="16.5">
       <c r="C5" s="44"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
       <c r="I5" s="14" t="s">
         <v>8</v>
       </c>
@@ -12201,7 +12200,7 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="17.25" thickBot="1">
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="18">
@@ -12235,19 +12234,19 @@
         <v>11</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="92"/>
     </row>
     <row r="12" spans="2:13" ht="16.5">
       <c r="C12" s="44"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
       <c r="I12" s="14" t="s">
         <v>11</v>
       </c>
@@ -12338,7 +12337,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="17.25" thickBot="1">
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="18">
@@ -12372,19 +12371,19 @@
         <v>9</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="92"/>
     </row>
     <row r="19" spans="2:13" ht="16.5">
       <c r="C19" s="44"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
       <c r="I19" s="14" t="s">
         <v>9</v>
       </c>
@@ -12477,7 +12476,7 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="17.25" thickBot="1">
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="18">
@@ -12515,19 +12514,19 @@
         <v>10</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="92"/>
     </row>
     <row r="26" spans="2:13" ht="16.5">
       <c r="C26" s="44"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
       <c r="I26" s="14" t="s">
         <v>10</v>
       </c>
@@ -12620,7 +12619,7 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" thickBot="1">
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="18">
@@ -12863,890 +12862,890 @@
   <dimension ref="B2:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="101"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+    </row>
+    <row r="4" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B4" s="103"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+    </row>
+    <row r="5" spans="2:15" ht="33" customHeight="1" thickBot="1">
+      <c r="B5" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="99"/>
+    </row>
+    <row r="6" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+    </row>
+    <row r="7" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B7" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="73">
+        <v>50</v>
+      </c>
+      <c r="D7" s="73">
+        <v>100</v>
+      </c>
+      <c r="E7" s="73">
+        <v>150</v>
+      </c>
+      <c r="F7" s="73">
+        <v>200</v>
+      </c>
+      <c r="G7" s="73">
+        <v>250</v>
+      </c>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="73">
+        <v>50</v>
+      </c>
+      <c r="L7" s="73">
+        <v>100</v>
+      </c>
+      <c r="M7" s="73">
+        <v>150</v>
+      </c>
+      <c r="N7" s="73">
+        <v>200</v>
+      </c>
+      <c r="O7" s="73">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B8" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="75">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="D8" s="75">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="E8" s="75">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F8" s="75">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="G8" s="75">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="75">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="L8" s="75">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="M8" s="75">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="N8" s="75">
+        <v>0.43</v>
+      </c>
+      <c r="O8" s="75">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="30.75" thickBot="1">
+      <c r="B9" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="73">
+        <v>0.82502964000000001</v>
+      </c>
+      <c r="D9" s="73">
+        <v>0.84609984999999999</v>
+      </c>
+      <c r="E9" s="73">
+        <v>0.83896899000000003</v>
+      </c>
+      <c r="F9" s="73">
+        <v>0.84010362999999999</v>
+      </c>
+      <c r="G9" s="73">
+        <v>0.83863162999999996</v>
+      </c>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="73">
+        <v>15.210961579999999</v>
+      </c>
+      <c r="L9" s="73">
+        <v>15.23611736</v>
+      </c>
+      <c r="M9" s="73">
+        <v>15.123571399999999</v>
+      </c>
+      <c r="N9" s="73">
+        <v>15.175897600000001</v>
+      </c>
+      <c r="O9" s="73">
+        <v>15.17518353</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="30.75" thickBot="1">
+      <c r="B10" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="73">
+        <v>6.8439111710000002</v>
+      </c>
+      <c r="D10" s="73">
+        <v>6.6005511280000002</v>
+      </c>
+      <c r="E10" s="73">
+        <v>6.6005511280000002</v>
+      </c>
+      <c r="F10" s="73">
+        <v>6.9721734519999998</v>
+      </c>
+      <c r="G10" s="73">
+        <v>6.5728945730000001</v>
+      </c>
+      <c r="H10" s="70"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="73">
+        <v>6.7087028030000004</v>
+      </c>
+      <c r="L10" s="73">
+        <v>6.9385850429999998</v>
+      </c>
+      <c r="M10" s="73">
+        <v>7.1225667000000001</v>
+      </c>
+      <c r="N10" s="73">
+        <v>7.1292552950000001</v>
+      </c>
+      <c r="O10" s="73">
+        <v>7.208764553</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+    </row>
+    <row r="12" spans="2:15" ht="33" customHeight="1" thickBot="1">
+      <c r="B12" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-    </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B4" s="88"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-    </row>
-    <row r="5" spans="2:15" ht="33" customHeight="1" thickBot="1">
-      <c r="B5" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="95"/>
-    </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-    </row>
-    <row r="7" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B7" s="79" t="s">
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="99"/>
+    </row>
+    <row r="13" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+    </row>
+    <row r="14" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B14" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="73">
+        <v>50</v>
+      </c>
+      <c r="D14" s="73">
+        <v>100</v>
+      </c>
+      <c r="E14" s="73">
+        <v>150</v>
+      </c>
+      <c r="F14" s="73">
+        <v>200</v>
+      </c>
+      <c r="G14" s="73">
+        <v>250</v>
+      </c>
+      <c r="H14" s="70"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="73">
+        <v>50</v>
+      </c>
+      <c r="L14" s="73">
+        <v>100</v>
+      </c>
+      <c r="M14" s="73">
+        <v>150</v>
+      </c>
+      <c r="N14" s="73">
+        <v>200</v>
+      </c>
+      <c r="O14" s="73">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B15" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="75">
+        <v>0.114</v>
+      </c>
+      <c r="D15" s="75">
+        <v>0.121</v>
+      </c>
+      <c r="E15" s="75">
+        <v>0.113</v>
+      </c>
+      <c r="F15" s="75">
+        <v>0.104</v>
+      </c>
+      <c r="G15" s="75">
+        <v>0.121</v>
+      </c>
+      <c r="H15" s="70"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="75">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="L15" s="75">
+        <v>0.112</v>
+      </c>
+      <c r="M15" s="75">
+        <v>0.124</v>
+      </c>
+      <c r="N15" s="75">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="O15" s="75">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="30.75" thickBot="1">
+      <c r="B16" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="73">
+        <v>0.12275147</v>
+      </c>
+      <c r="D16" s="73">
+        <v>0.12314343</v>
+      </c>
+      <c r="E16" s="73">
+        <v>0.12293553</v>
+      </c>
+      <c r="F16" s="73">
+        <v>0.12483978</v>
+      </c>
+      <c r="G16" s="73">
+        <v>0.12227011</v>
+      </c>
+      <c r="H16" s="70"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="73">
+        <v>0.12834764000000001</v>
+      </c>
+      <c r="L16" s="73">
+        <v>0.12524104</v>
+      </c>
+      <c r="M16" s="73">
+        <v>0.13587737</v>
+      </c>
+      <c r="N16" s="73">
+        <v>0.12614226000000001</v>
+      </c>
+      <c r="O16" s="73">
+        <v>0.12926412000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="30.75" thickBot="1">
+      <c r="B17" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="80">
+      <c r="C17" s="73">
+        <v>11.543715000000001</v>
+      </c>
+      <c r="D17" s="73">
+        <v>11.129072669999999</v>
+      </c>
+      <c r="E17" s="73">
+        <v>11.30380297</v>
+      </c>
+      <c r="F17" s="73">
+        <v>12.0134325</v>
+      </c>
+      <c r="G17" s="73">
+        <v>11.475851540000001</v>
+      </c>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="73">
+        <v>11.47798753</v>
+      </c>
+      <c r="L17" s="73">
+        <v>12.35086036</v>
+      </c>
+      <c r="M17" s="73">
+        <v>12.20654774</v>
+      </c>
+      <c r="N17" s="73">
+        <v>12.60469913</v>
+      </c>
+      <c r="O17" s="73">
+        <v>12.905657769999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+    </row>
+    <row r="19" spans="2:15" ht="33" customHeight="1" thickBot="1">
+      <c r="B19" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="96"/>
+    </row>
+    <row r="20" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+    </row>
+    <row r="21" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B21" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="73">
         <v>50</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D21" s="73">
         <v>100</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E21" s="73">
         <v>150</v>
       </c>
-      <c r="F7" s="80">
+      <c r="F21" s="73">
         <v>200</v>
       </c>
-      <c r="G7" s="80">
+      <c r="G21" s="73">
         <v>250</v>
       </c>
-      <c r="H7" s="77"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="81" t="s">
+      <c r="H21" s="70"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="73">
+        <v>50</v>
+      </c>
+      <c r="L21" s="73">
+        <v>100</v>
+      </c>
+      <c r="M21" s="73">
+        <v>150</v>
+      </c>
+      <c r="N21" s="73">
+        <v>200</v>
+      </c>
+      <c r="O21" s="73">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B22" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="75">
+        <v>0.34</v>
+      </c>
+      <c r="D22" s="75">
+        <v>0.31</v>
+      </c>
+      <c r="E22" s="75">
+        <v>0.38</v>
+      </c>
+      <c r="F22" s="75">
+        <v>0.41</v>
+      </c>
+      <c r="G22" s="75">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="H22" s="70"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="75">
+        <v>0.38</v>
+      </c>
+      <c r="L22" s="75">
+        <v>0.379</v>
+      </c>
+      <c r="M22" s="75">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="N22" s="75">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="O22" s="75">
+        <v>0.38300000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="30.75" thickBot="1">
+      <c r="B23" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="73">
+        <v>0.87327312999999995</v>
+      </c>
+      <c r="D23" s="73">
+        <v>0.83050131999999999</v>
+      </c>
+      <c r="E23" s="73">
+        <v>0.82155014999999998</v>
+      </c>
+      <c r="F23" s="73">
+        <v>0.83025002000000003</v>
+      </c>
+      <c r="G23" s="73">
+        <v>0.82733869999999998</v>
+      </c>
+      <c r="H23" s="70"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="73">
+        <v>7.1980612300000004</v>
+      </c>
+      <c r="L23" s="73">
+        <v>6.2324874399999999</v>
+      </c>
+      <c r="M23" s="73">
+        <v>6.2171301799999998</v>
+      </c>
+      <c r="N23" s="73">
+        <v>6.1393270500000003</v>
+      </c>
+      <c r="O23" s="73">
+        <v>6.2993199799999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="30.75" thickBot="1">
+      <c r="B24" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="80">
+      <c r="C24" s="73">
+        <v>30.64390564</v>
+      </c>
+      <c r="D24" s="73">
+        <v>30.81313419</v>
+      </c>
+      <c r="E24" s="73">
+        <v>31.38992</v>
+      </c>
+      <c r="F24" s="73">
+        <v>30.66223931</v>
+      </c>
+      <c r="G24" s="73">
+        <v>32.373740429999998</v>
+      </c>
+      <c r="H24" s="70"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="73">
+        <v>32.327545639999997</v>
+      </c>
+      <c r="L24" s="73">
+        <v>32.379696610000003</v>
+      </c>
+      <c r="M24" s="73">
+        <v>31.884886980000001</v>
+      </c>
+      <c r="N24" s="73">
+        <v>32.360270739999997</v>
+      </c>
+      <c r="O24" s="73">
+        <v>33.821345809999997</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+    </row>
+    <row r="26" spans="2:15" ht="33" customHeight="1" thickBot="1">
+      <c r="B26" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="96"/>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+    </row>
+    <row r="28" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B28" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="73">
         <v>50</v>
       </c>
-      <c r="L7" s="80">
+      <c r="D28" s="73">
         <v>100</v>
       </c>
-      <c r="M7" s="80">
+      <c r="E28" s="73">
         <v>150</v>
       </c>
-      <c r="N7" s="80">
+      <c r="F28" s="73">
         <v>200</v>
       </c>
-      <c r="O7" s="80">
+      <c r="G28" s="73">
         <v>250</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B8" s="82" t="s">
+      <c r="H28" s="70"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="73">
+        <v>50</v>
+      </c>
+      <c r="L28" s="73">
+        <v>100</v>
+      </c>
+      <c r="M28" s="73">
+        <v>150</v>
+      </c>
+      <c r="N28" s="73">
+        <v>200</v>
+      </c>
+      <c r="O28" s="73">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B29" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="83">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="D8" s="83">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="E8" s="83">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="F8" s="83">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="G8" s="83">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="80" t="s">
+      <c r="C29" s="108">
+        <v>0.624</v>
+      </c>
+      <c r="D29" s="108">
+        <v>0.625</v>
+      </c>
+      <c r="E29" s="108">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="F29" s="108">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="G29" s="108">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="H29" s="70"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="83">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="L8" s="83">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="M8" s="83">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="N8" s="83">
-        <v>0.43</v>
-      </c>
-      <c r="O8" s="83">
-        <v>0.47499999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="30.75" thickBot="1">
-      <c r="B9" s="82" t="s">
+      <c r="K29" s="81">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="L29" s="81">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="M29" s="81">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="N29" s="81">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="O29" s="81">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="30.75" thickBot="1">
+      <c r="B30" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="80">
-        <v>0.82502964000000001</v>
-      </c>
-      <c r="D9" s="80">
-        <v>0.84609984999999999</v>
-      </c>
-      <c r="E9" s="80">
-        <v>0.83896899000000003</v>
-      </c>
-      <c r="F9" s="80">
-        <v>0.84010362999999999</v>
-      </c>
-      <c r="G9" s="80">
-        <v>0.83863162999999996</v>
-      </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="80" t="s">
+      <c r="C30" s="84">
+        <v>9.9262710000000004E-2</v>
+      </c>
+      <c r="D30" s="85">
+        <v>9.9217890000000003E-2</v>
+      </c>
+      <c r="E30" s="85">
+        <v>9.8727889999999999E-2</v>
+      </c>
+      <c r="F30" s="85">
+        <v>9.8178630000000003E-2</v>
+      </c>
+      <c r="G30" s="86">
+        <v>9.6535629999999997E-2</v>
+      </c>
+      <c r="H30" s="76"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="80">
-        <v>15.210961579999999</v>
-      </c>
-      <c r="L9" s="80">
-        <v>15.23611736</v>
-      </c>
-      <c r="M9" s="80">
-        <v>15.123571399999999</v>
-      </c>
-      <c r="N9" s="80">
-        <v>15.175897600000001</v>
-      </c>
-      <c r="O9" s="80">
-        <v>15.17518353</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="30.75" thickBot="1">
-      <c r="B10" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="80">
-        <v>6.8439111710000002</v>
-      </c>
-      <c r="D10" s="80">
-        <v>6.6005511280000002</v>
-      </c>
-      <c r="E10" s="80">
-        <v>6.6005511280000002</v>
-      </c>
-      <c r="F10" s="80">
-        <v>6.9721734519999998</v>
-      </c>
-      <c r="G10" s="80">
-        <v>6.5728945730000001</v>
-      </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="80">
-        <v>6.7087028030000004</v>
-      </c>
-      <c r="L10" s="80">
-        <v>6.9385850429999998</v>
-      </c>
-      <c r="M10" s="80">
-        <v>7.1225667000000001</v>
-      </c>
-      <c r="N10" s="80">
-        <v>7.1292552950000001</v>
-      </c>
-      <c r="O10" s="80">
-        <v>7.208764553</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-    </row>
-    <row r="12" spans="2:15" ht="33" customHeight="1" thickBot="1">
-      <c r="B12" s="93" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="93" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="95"/>
-    </row>
-    <row r="13" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-    </row>
-    <row r="14" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B14" s="79" t="s">
+      <c r="K30" s="73">
+        <v>5.5984437500000004</v>
+      </c>
+      <c r="L30" s="73">
+        <v>5.8465344899999998</v>
+      </c>
+      <c r="M30" s="73">
+        <v>5.2725437499999996</v>
+      </c>
+      <c r="N30" s="73">
+        <v>6.1258647799999997</v>
+      </c>
+      <c r="O30" s="73">
+        <v>5.6860151300000004</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="30.75" thickBot="1">
+      <c r="B31" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="80">
-        <v>50</v>
-      </c>
-      <c r="D14" s="80">
-        <v>100</v>
-      </c>
-      <c r="E14" s="80">
-        <v>150</v>
-      </c>
-      <c r="F14" s="80">
-        <v>200</v>
-      </c>
-      <c r="G14" s="80">
-        <v>250</v>
-      </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="81" t="s">
+      <c r="C31" s="82">
+        <v>19.804925919999999</v>
+      </c>
+      <c r="D31" s="82">
+        <v>19.86479211</v>
+      </c>
+      <c r="E31" s="82">
+        <v>19.393998150000002</v>
+      </c>
+      <c r="F31" s="82">
+        <v>19.528872249999999</v>
+      </c>
+      <c r="G31" s="82">
+        <v>19.81049681</v>
+      </c>
+      <c r="J31" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="80">
-        <v>50</v>
-      </c>
-      <c r="L14" s="80">
-        <v>100</v>
-      </c>
-      <c r="M14" s="80">
-        <v>150</v>
-      </c>
-      <c r="N14" s="80">
-        <v>200</v>
-      </c>
-      <c r="O14" s="80">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B15" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="83">
-        <v>0.114</v>
-      </c>
-      <c r="D15" s="83">
-        <v>0.121</v>
-      </c>
-      <c r="E15" s="83">
-        <v>0.113</v>
-      </c>
-      <c r="F15" s="83">
-        <v>0.104</v>
-      </c>
-      <c r="G15" s="83">
-        <v>0.121</v>
-      </c>
-      <c r="H15" s="77"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="83">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="L15" s="83">
-        <v>0.112</v>
-      </c>
-      <c r="M15" s="83">
-        <v>0.124</v>
-      </c>
-      <c r="N15" s="83">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="O15" s="83">
-        <v>0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="30.75" thickBot="1">
-      <c r="B16" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="80">
-        <v>0.12275147</v>
-      </c>
-      <c r="D16" s="80">
-        <v>0.12314343</v>
-      </c>
-      <c r="E16" s="80">
-        <v>0.12293553</v>
-      </c>
-      <c r="F16" s="80">
-        <v>0.12483978</v>
-      </c>
-      <c r="G16" s="80">
-        <v>0.12227011</v>
-      </c>
-      <c r="H16" s="77"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="80">
-        <v>0.12834764000000001</v>
-      </c>
-      <c r="L16" s="80">
-        <v>0.12524104</v>
-      </c>
-      <c r="M16" s="80">
-        <v>0.13587737</v>
-      </c>
-      <c r="N16" s="80">
-        <v>0.12614226000000001</v>
-      </c>
-      <c r="O16" s="80">
-        <v>0.12926412000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" ht="30.75" thickBot="1">
-      <c r="B17" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="80">
-        <v>11.543715000000001</v>
-      </c>
-      <c r="D17" s="80">
-        <v>11.129072669999999</v>
-      </c>
-      <c r="E17" s="80">
-        <v>11.30380297</v>
-      </c>
-      <c r="F17" s="80">
-        <v>12.0134325</v>
-      </c>
-      <c r="G17" s="80">
-        <v>11.475851540000001</v>
-      </c>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="80">
-        <v>11.47798753</v>
-      </c>
-      <c r="L17" s="80">
-        <v>12.35086036</v>
-      </c>
-      <c r="M17" s="80">
-        <v>12.20654774</v>
-      </c>
-      <c r="N17" s="80">
-        <v>12.60469913</v>
-      </c>
-      <c r="O17" s="80">
-        <v>12.905657769999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-    </row>
-    <row r="19" spans="2:15" ht="33" customHeight="1" thickBot="1">
-      <c r="B19" s="97" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="97" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="99"/>
-    </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-    </row>
-    <row r="21" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B21" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="80">
-        <v>50</v>
-      </c>
-      <c r="D21" s="80">
-        <v>100</v>
-      </c>
-      <c r="E21" s="80">
-        <v>150</v>
-      </c>
-      <c r="F21" s="80">
-        <v>200</v>
-      </c>
-      <c r="G21" s="80">
-        <v>250</v>
-      </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="81" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="80">
-        <v>50</v>
-      </c>
-      <c r="L21" s="80">
-        <v>100</v>
-      </c>
-      <c r="M21" s="80">
-        <v>150</v>
-      </c>
-      <c r="N21" s="80">
-        <v>200</v>
-      </c>
-      <c r="O21" s="80">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B22" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="83">
-        <v>0.34</v>
-      </c>
-      <c r="D22" s="83">
-        <v>0.31</v>
-      </c>
-      <c r="E22" s="83">
-        <v>0.38</v>
-      </c>
-      <c r="F22" s="83">
-        <v>0.41</v>
-      </c>
-      <c r="G22" s="83">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="H22" s="77"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22" s="83">
-        <v>0.38</v>
-      </c>
-      <c r="L22" s="83">
-        <v>0.379</v>
-      </c>
-      <c r="M22" s="83">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="N22" s="83">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="O22" s="83">
-        <v>0.38300000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" ht="30.75" thickBot="1">
-      <c r="B23" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="80">
-        <v>0.87327312999999995</v>
-      </c>
-      <c r="D23" s="80">
-        <v>0.83050131999999999</v>
-      </c>
-      <c r="E23" s="80">
-        <v>0.82155014999999998</v>
-      </c>
-      <c r="F23" s="80">
-        <v>0.83025002000000003</v>
-      </c>
-      <c r="G23" s="80">
-        <v>0.82733869999999998</v>
-      </c>
-      <c r="H23" s="77"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="80">
-        <v>7.1980612300000004</v>
-      </c>
-      <c r="L23" s="80">
-        <v>6.2324874399999999</v>
-      </c>
-      <c r="M23" s="80">
-        <v>6.2171301799999998</v>
-      </c>
-      <c r="N23" s="80">
-        <v>6.1393270500000003</v>
-      </c>
-      <c r="O23" s="80">
-        <v>6.2993199799999999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" ht="30.75" thickBot="1">
-      <c r="B24" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="80">
-        <v>30.64390564</v>
-      </c>
-      <c r="D24" s="80">
-        <v>30.81313419</v>
-      </c>
-      <c r="E24" s="80">
-        <v>31.38992</v>
-      </c>
-      <c r="F24" s="80">
-        <v>30.66223931</v>
-      </c>
-      <c r="G24" s="80">
-        <v>32.373740429999998</v>
-      </c>
-      <c r="H24" s="77"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="80">
-        <v>32.327545639999997</v>
-      </c>
-      <c r="L24" s="80">
-        <v>32.379696610000003</v>
-      </c>
-      <c r="M24" s="80">
-        <v>31.884886980000001</v>
-      </c>
-      <c r="N24" s="80">
-        <v>32.360270739999997</v>
-      </c>
-      <c r="O24" s="80">
-        <v>33.821345809999997</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-    </row>
-    <row r="26" spans="2:15" ht="33" customHeight="1" thickBot="1">
-      <c r="B26" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="99"/>
-    </row>
-    <row r="27" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-    </row>
-    <row r="28" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B28" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="80">
-        <v>50</v>
-      </c>
-      <c r="D28" s="80">
-        <v>100</v>
-      </c>
-      <c r="E28" s="80">
-        <v>150</v>
-      </c>
-      <c r="F28" s="80">
-        <v>200</v>
-      </c>
-      <c r="G28" s="80">
-        <v>250</v>
-      </c>
-      <c r="H28" s="77"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="81" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="80">
-        <v>50</v>
-      </c>
-      <c r="L28" s="80">
-        <v>100</v>
-      </c>
-      <c r="M28" s="80">
-        <v>150</v>
-      </c>
-      <c r="N28" s="80">
-        <v>200</v>
-      </c>
-      <c r="O28" s="80">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B29" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="107">
-        <v>0.624</v>
-      </c>
-      <c r="D29" s="107">
-        <v>0.625</v>
-      </c>
-      <c r="E29" s="107">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="F29" s="107">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="G29" s="107">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="H29" s="77"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="K29" s="101">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="L29" s="101">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="M29" s="101">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="N29" s="101">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="O29" s="101">
-        <v>0.73499999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" ht="30.75" thickBot="1">
-      <c r="B30" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="104">
-        <v>9.9262710000000004E-2</v>
-      </c>
-      <c r="D30" s="105">
-        <v>9.9217890000000003E-2</v>
-      </c>
-      <c r="E30" s="105">
-        <v>9.8727889999999999E-2</v>
-      </c>
-      <c r="F30" s="105">
-        <v>9.8178630000000003E-2</v>
-      </c>
-      <c r="G30" s="106">
-        <v>9.6535629999999997E-2</v>
-      </c>
-      <c r="H30" s="87"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="80">
-        <v>5.5984437500000004</v>
-      </c>
-      <c r="L30" s="80">
-        <v>5.8465344899999998</v>
-      </c>
-      <c r="M30" s="80">
-        <v>5.2725437499999996</v>
-      </c>
-      <c r="N30" s="80">
-        <v>6.1258647799999997</v>
-      </c>
-      <c r="O30" s="80">
-        <v>5.6860151300000004</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" ht="30.75" thickBot="1">
-      <c r="B31" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="102">
-        <v>19.804925919999999</v>
-      </c>
-      <c r="D31" s="102">
-        <v>19.86479211</v>
-      </c>
-      <c r="E31" s="102">
-        <v>19.393998150000002</v>
-      </c>
-      <c r="F31" s="102">
-        <v>19.528872249999999</v>
-      </c>
-      <c r="G31" s="102">
-        <v>19.81049681</v>
-      </c>
-      <c r="J31" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="80">
+      <c r="K31" s="73">
         <v>19.347872500000001</v>
       </c>
-      <c r="L31" s="80">
+      <c r="L31" s="73">
         <v>18.347270250000001</v>
       </c>
-      <c r="M31" s="80">
+      <c r="M31" s="73">
         <v>19.487857099999999</v>
       </c>
-      <c r="N31" s="80">
+      <c r="N31" s="73">
         <v>19.102750060000002</v>
       </c>
-      <c r="O31" s="80">
+      <c r="O31" s="73">
         <v>19.246229889999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="J5:O5"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="J26:O26"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="J19:O19"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="J12:O12"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="J5:O5"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/Experiment Sheet.xlsx
+++ b/results/Experiment Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\다운로드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D1981B-F4DE-4C59-92D4-91B4886FA94F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C9EBE1-51FF-40CF-A8DD-44098122BF46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(Point) Range_TDrive" sheetId="5" r:id="rId1"/>
@@ -1253,7 +1253,7 @@
   <dimension ref="A1:T778"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3325,7 +3325,7 @@
   <dimension ref="B1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="B24" sqref="B24:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12075,7 +12075,7 @@
   <dimension ref="B3:M61"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -12862,7 +12862,7 @@
   <dimension ref="B2:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
